--- a/Presentacion 1/resultados_lasso_pisa.xlsx
+++ b/Presentacion 1/resultados_lasso_pisa.xlsx
@@ -16,18 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="68">
   <si>
     <t>coeficiente_lasso</t>
   </si>
   <si>
-    <t>HOMEPOS</t>
-  </si>
-  <si>
     <t>MATHEFF</t>
   </si>
   <si>
-    <t>PAREDINT</t>
+    <t>ICTRES</t>
   </si>
   <si>
     <t>ST004D01T_2</t>
@@ -54,40 +51,46 @@
     <t>GRADE</t>
   </si>
   <si>
+    <t>FISCED</t>
+  </si>
+  <si>
+    <t>COGACRCO</t>
+  </si>
+  <si>
     <t>MATHEASE</t>
   </si>
   <si>
     <t>CNT_COL</t>
   </si>
   <si>
-    <t>COGACRCO</t>
-  </si>
-  <si>
-    <t>FISCED</t>
-  </si>
-  <si>
     <t>CNT_PER</t>
   </si>
   <si>
+    <t>BSMJ</t>
+  </si>
+  <si>
     <t>MATHPERS</t>
   </si>
   <si>
-    <t>BSMJ</t>
+    <t>MISCED</t>
+  </si>
+  <si>
+    <t>CURIOAGR</t>
   </si>
   <si>
     <t>EXPECEDU</t>
   </si>
   <si>
-    <t>CURIOAGR</t>
-  </si>
-  <si>
     <t>MATHPREF</t>
   </si>
   <si>
     <t>CREATOP</t>
   </si>
   <si>
-    <t>MISCED</t>
+    <t>DURECEC</t>
+  </si>
+  <si>
+    <t>OPENART</t>
   </si>
   <si>
     <t>BELONG</t>
@@ -96,81 +99,66 @@
     <t>PERSEVAGR</t>
   </si>
   <si>
-    <t>DURECEC</t>
-  </si>
-  <si>
     <t>ISCEDP</t>
   </si>
   <si>
-    <t>OPENART</t>
+    <t>RELATST</t>
+  </si>
+  <si>
+    <t>DISCLIM</t>
+  </si>
+  <si>
+    <t>EMOCOAGR</t>
   </si>
   <si>
     <t>AGE</t>
   </si>
   <si>
-    <t>RELATST</t>
-  </si>
-  <si>
-    <t>EMOCOAGR</t>
-  </si>
-  <si>
-    <t>DISCLIM</t>
+    <t>CREATFAM</t>
+  </si>
+  <si>
+    <t>BULLIED</t>
   </si>
   <si>
     <t>EXPOFA</t>
   </si>
   <si>
-    <t>CREATFAM</t>
-  </si>
-  <si>
-    <t>BULLIED</t>
+    <t>CNT_BRA</t>
+  </si>
+  <si>
+    <t>CNT_PAN</t>
+  </si>
+  <si>
+    <t>CNT_MEX</t>
   </si>
   <si>
     <t>CNT_SLV</t>
   </si>
   <si>
-    <t>ST004D01T_&lt;NA&gt;</t>
-  </si>
-  <si>
     <t>CNT_PRY</t>
   </si>
   <si>
+    <t>CNT_DOM</t>
+  </si>
+  <si>
     <t>CNT_GTM</t>
   </si>
   <si>
-    <t>CNT_PAN</t>
-  </si>
-  <si>
-    <t>CNT_MEX</t>
-  </si>
-  <si>
     <t>CNT_CRI</t>
   </si>
   <si>
-    <t>SISCO</t>
-  </si>
-  <si>
-    <t>CNT_DOM</t>
-  </si>
-  <si>
-    <t>ESCS</t>
+    <t>IMMIG_2</t>
+  </si>
+  <si>
+    <t>FEELSAFE</t>
+  </si>
+  <si>
+    <t>TARDYSD_2</t>
   </si>
   <si>
     <t>IMMIG_3</t>
   </si>
   <si>
-    <t>IMMIG_2</t>
-  </si>
-  <si>
-    <t>CNT_BRA</t>
-  </si>
-  <si>
-    <t>FEELSAFE</t>
-  </si>
-  <si>
-    <t>TARDYSD_2</t>
-  </si>
-  <si>
     <t>MATHMOT</t>
   </si>
   <si>
@@ -180,10 +168,7 @@
     <t>TEACHSUP</t>
   </si>
   <si>
-    <t>TARDYSD_&lt;NA&gt;</t>
-  </si>
-  <si>
-    <t>HISEI</t>
+    <t>TARDYSD_1</t>
   </si>
   <si>
     <t>WORKHOME</t>
@@ -192,58 +177,49 @@
     <t>MISSSC</t>
   </si>
   <si>
-    <t>TARDYSD_1</t>
+    <t>INFOSEEK</t>
+  </si>
+  <si>
+    <t>CREATEFF</t>
   </si>
   <si>
     <t>EXPO21ST</t>
   </si>
   <si>
-    <t>IMMIG_&lt;NA&gt;</t>
-  </si>
-  <si>
     <t>MATHEF21</t>
   </si>
   <si>
-    <t>CREATEFF</t>
-  </si>
-  <si>
-    <t>INFOSEEK</t>
+    <t>FAMSUP</t>
   </si>
   <si>
     <t>SCHRISK</t>
   </si>
   <si>
-    <t>FAMSUP</t>
-  </si>
-  <si>
     <t>CREATSCH</t>
   </si>
   <si>
-    <t>ICTRES</t>
-  </si>
-  <si>
     <t>STUDYHMW</t>
   </si>
   <si>
+    <t>HISCED</t>
+  </si>
+  <si>
     <t>COGACMCO</t>
   </si>
   <si>
     <t>CREATAS</t>
   </si>
   <si>
+    <t>ANXMAT</t>
+  </si>
+  <si>
     <t>REPEAT</t>
   </si>
   <si>
-    <t>ANXMAT</t>
+    <t>EXERPRAC</t>
   </si>
   <si>
     <t>WORKPAY</t>
-  </si>
-  <si>
-    <t>EXERPRAC</t>
-  </si>
-  <si>
-    <t>HISCED</t>
   </si>
 </sst>
 </file>
@@ -601,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19.26004920592545</v>
+        <v>15.97738521172823</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -625,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.11297219430867</v>
+        <v>10.99442120300474</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -633,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>14.13108993048112</v>
+        <v>9.323317418200094</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -641,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9.412202450610886</v>
+        <v>9.107567852664909</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -649,7 +625,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8.466675716317022</v>
+        <v>7.420941252205215</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -657,7 +633,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.125488699776971</v>
+        <v>6.344802765632239</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -665,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6.535941890041226</v>
+        <v>6.182420413289804</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -673,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6.296050899409197</v>
+        <v>6.161125058469816</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -681,7 +657,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.032158793441686</v>
+        <v>4.722693435293934</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -689,7 +665,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4.447881565102309</v>
+        <v>4.414200914202016</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -697,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4.174153689608525</v>
+        <v>4.41236154581344</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -705,7 +681,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4.142360855586244</v>
+        <v>4.035364458891589</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -713,7 +689,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.825864229104506</v>
+        <v>4.000691003852016</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -721,7 +697,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3.795296466257312</v>
+        <v>3.906261441570848</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -729,7 +705,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3.7230660509707</v>
+        <v>3.886584446243104</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -737,7 +713,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3.70222674933456</v>
+        <v>3.857120319291706</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -745,7 +721,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3.551237033090841</v>
+        <v>3.559726587287914</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -753,7 +729,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3.435646784992206</v>
+        <v>3.46812702536595</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -761,7 +737,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3.168671667614533</v>
+        <v>3.353333769040925</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -769,7 +745,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3.142355309746774</v>
+        <v>3.327908675331361</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -777,7 +753,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2.92022126267712</v>
+        <v>2.969556228320462</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -785,7 +761,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2.491487293815885</v>
+        <v>2.32705836726255</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -793,7 +769,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2.461981982220992</v>
+        <v>1.849446583505924</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -801,7 +777,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.77986465535816</v>
+        <v>1.823869676175314</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -809,7 +785,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.460786718956405</v>
+        <v>1.738020680487879</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -817,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.365797026715079</v>
+        <v>1.4586270163771</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -825,7 +801,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.048559770630253</v>
+        <v>1.277993153541178</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -833,7 +809,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.9879126342840706</v>
+        <v>0.8479905640579999</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -841,7 +817,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.9281437174396941</v>
+        <v>0.7877781065161293</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -849,7 +825,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.7207933358398191</v>
+        <v>0.737758434539532</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -857,7 +833,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.6731187961686862</v>
+        <v>0.6951769666202798</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -865,7 +841,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.6377341524298525</v>
+        <v>0.6329613692520227</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -873,7 +849,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.1148771274257831</v>
+        <v>0.3204967249899996</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -881,7 +857,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.03809109397952708</v>
+        <v>0.2195832358046021</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -889,7 +865,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.02069319739427736</v>
+        <v>0.1937980845870462</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -953,7 +929,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>-0.3469119141960027</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -961,7 +937,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.6012029474946983</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -969,7 +945,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>-0.719633543352744</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -977,7 +953,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.01315156022122251</v>
+        <v>-0.8567226864068522</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -985,7 +961,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.3038066544117348</v>
+        <v>-1.056489729140625</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -993,7 +969,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-0.5112106069859769</v>
+        <v>-1.264121445700836</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1001,7 +977,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-0.8099771644837338</v>
+        <v>-1.67821397259341</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1009,7 +985,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-0.9894631703265194</v>
+        <v>-1.863774621332754</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1017,7 +993,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-1.058795658139498</v>
+        <v>-2.054621028587843</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1025,7 +1001,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-1.108693858161741</v>
+        <v>-2.342960272823074</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1033,7 +1009,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-1.190318802658012</v>
+        <v>-2.405927699234509</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1041,7 +1017,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-1.329745621527097</v>
+        <v>-2.441503087398704</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1049,7 +1025,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-1.590788075410879</v>
+        <v>-2.466300911360001</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1057,7 +1033,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-1.885407604294101</v>
+        <v>-3.16761777470416</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1065,7 +1041,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-2.0709751542672</v>
+        <v>-3.234250474426852</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1073,7 +1049,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-2.083829635510247</v>
+        <v>-3.34684271568196</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1081,7 +1057,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-2.48526246284856</v>
+        <v>-4.266347794257371</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1089,7 +1065,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-2.683996245328714</v>
+        <v>-4.551951049524088</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1097,7 +1073,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-2.767448283461541</v>
+        <v>-4.791378832994157</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1105,7 +1081,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-2.84096128664427</v>
+        <v>-5.880614466315581</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1113,7 +1089,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-2.845252629034513</v>
+        <v>-6.67005377096827</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1121,7 +1097,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-3.182065068634717</v>
+        <v>-6.884550953503022</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1129,7 +1105,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-3.423078159417834</v>
+        <v>-6.965535837005438</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1137,7 +1113,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-3.675532507883355</v>
+        <v>-7.149886763579487</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1145,71 +1121,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-4.200959508135335</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>-4.645319314002694</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>-5.69487958346194</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>-6.448510208491057</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>-6.514295472481828</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>-6.635496888143074</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>-7.145643408404572</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>-7.294931003746838</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>-18.26050145777761</v>
+        <v>-7.195492565881238</v>
       </c>
     </row>
   </sheetData>
@@ -1219,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1235,103 +1147,103 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>22.1104026538789</v>
+        <v>13.58365699629825</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>16.87378979493586</v>
+        <v>11.42737495729506</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>12.59272882359261</v>
+        <v>8.661312498401669</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>7.884960855230174</v>
+        <v>7.861361623576288</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>7.611569028591558</v>
+        <v>7.586164942280155</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>7.371931085620341</v>
+        <v>7.515070663977002</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>7.227117925217263</v>
+        <v>7.284571356989513</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>6.148543080142995</v>
+        <v>6.475695655892071</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>6.03172222856421</v>
+        <v>6.183967173077016</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>5.970262207288146</v>
+        <v>6.144814314452489</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>5.935145684240335</v>
+        <v>5.144910453229277</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>4.651342689486972</v>
+        <v>4.924063704315003</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>4.620168210498773</v>
+        <v>4.421016383597529</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1339,156 +1251,156 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>3.943951428250729</v>
+        <v>3.931020430359389</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>3.617181878079481</v>
+        <v>3.695798405651864</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>3.519878259306033</v>
+        <v>3.527693302950965</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>3.346353884843011</v>
+        <v>3.504445131527051</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>3.190687356110714</v>
+        <v>2.996512768413738</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B20">
-        <v>2.312085411960738</v>
+        <v>2.445343117606714</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>2.239511934897686</v>
+        <v>2.289249219382397</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>2.153989372285119</v>
+        <v>2.12254946088437</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>1.959179189674739</v>
+        <v>2.035006068199195</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>1.947244903616278</v>
+        <v>1.859517351490466</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>1.800678620530133</v>
+        <v>1.792673825141748</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>1.604462156642462</v>
+        <v>1.79263805499583</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>1.203427434573247</v>
+        <v>1.663471081086083</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
-        <v>1.132252557538608</v>
+        <v>1.117401089952156</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B29">
-        <v>0.9928760726183042</v>
+        <v>0.7898952745304085</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.9098207942943959</v>
+        <v>0.5451828348996527</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>0.8309758514078186</v>
+        <v>0.4906338970707244</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>0.378929476691492</v>
+        <v>0.3054371740071861</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.2815757820238408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1496,23 +1408,23 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1520,7 +1432,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1528,15 +1440,15 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1544,7 +1456,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1552,7 +1464,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1560,274 +1472,210 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>-0.04307651486717379</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>-0.2340691408492175</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.2817968720886563</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>-0.7986090855424375</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B47">
-        <v>-0.04463789468865616</v>
+        <v>-0.8267398036432713</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.3315778839699452</v>
+        <v>-0.8696811170171472</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B49">
-        <v>-0.3633286837325791</v>
+        <v>-0.9584944577283034</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>-0.6254922927950435</v>
+        <v>-1.583756187038779</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B51">
-        <v>-0.644834181668771</v>
+        <v>-1.640329165231028</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52">
-        <v>-0.7823087723380988</v>
+        <v>-2.032015314125613</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.8238094587641872</v>
+        <v>-2.142249318992921</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.9996965297057376</v>
+        <v>-3.010645961437277</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B55">
-        <v>-1.676632746550897</v>
+        <v>-3.181070326132257</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-1.820049620385814</v>
+        <v>-3.375348535249038</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>-1.937369016987367</v>
+        <v>-3.463008906665857</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B58">
-        <v>-2.110426658855233</v>
+        <v>-3.626928112686295</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B59">
-        <v>-2.422509528775782</v>
+        <v>-3.656460486917827</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>-2.739118672198447</v>
+        <v>-3.686415945736569</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>-2.966187614682339</v>
+        <v>-4.019146025798391</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>-3.326965717868346</v>
+        <v>-5.21755301187746</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B63">
-        <v>-3.488416755359366</v>
+        <v>-5.931482300499439</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B64">
-        <v>-3.516567532944854</v>
+        <v>-6.958778662520841</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>-3.524991065354544</v>
+        <v>-7.804236132480584</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-3.560618067819838</v>
+        <v>-9.599130024760356</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>-4.226263183645443</v>
+        <v>-10.16113351816241</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B68">
-        <v>-5.045728952675815</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69">
-        <v>-5.299139435125051</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70">
-        <v>-5.884442286185568</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71">
-        <v>-6.55274695869274</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>-7.270557024336003</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73">
-        <v>-9.541669981785786</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74">
-        <v>-10.1000627494875</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>-10.3393083978089</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>-20.69348597986814</v>
+        <v>-10.35255677388836</v>
       </c>
     </row>
   </sheetData>
@@ -1837,7 +1685,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1853,23 +1701,23 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>24.12895053639199</v>
+        <v>14.43731692200636</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>15.98183800642653</v>
+        <v>11.18678331095584</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>13.36763434813225</v>
+        <v>10.11370452847212</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1877,23 +1725,23 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10.22452222876189</v>
+        <v>9.235760764246207</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>8.438780242992658</v>
+        <v>7.712837897853268</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>7.753338518152464</v>
+        <v>7.711029171262397</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1901,15 +1749,15 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.389249900197059</v>
+        <v>7.497170045095878</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>6.455396783207794</v>
+        <v>6.743922678102435</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1917,95 +1765,95 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.383535577409779</v>
+        <v>6.566286175963235</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>6.236842594949194</v>
+        <v>6.063223437525155</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>6.108474201680946</v>
+        <v>5.964732274880395</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>5.810614466694817</v>
+        <v>5.103398343394103</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>4.397567266657178</v>
+        <v>4.981544608159767</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>4.224600624535343</v>
+        <v>4.913549051125935</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>3.928301246357498</v>
+        <v>3.89075720569987</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>3.843123022035287</v>
+        <v>3.890505255643119</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>3.661569881855376</v>
+        <v>3.619212187764468</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>3.61598179092885</v>
+        <v>3.193422729068265</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>2.982993808152419</v>
+        <v>2.84747216363312</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>2.84628099505033</v>
+        <v>2.677520664408029</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2013,7 +1861,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>2.217780722007328</v>
+        <v>2.014862384630317</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2021,7 +1869,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1.696681932241352</v>
+        <v>1.981573873212201</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2029,108 +1877,108 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.586138880524877</v>
+        <v>1.634434150882354</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>1.375979416394887</v>
+        <v>1.4643878767466</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>1.288534417374037</v>
+        <v>1.455708823508576</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>1.285021322864489</v>
+        <v>1.283460919999915</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>1.132701394854048</v>
+        <v>1.219408577882526</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>1.0566467660198</v>
+        <v>1.099242876276531</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.9410350750890948</v>
+        <v>1.087643526312631</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>0.7367753917814055</v>
+        <v>0.8748061577916039</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>0.7229958593550928</v>
+        <v>0.7064846471101613</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>0.645262834733196</v>
+        <v>0.6842951553321759</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>0.4871218107585343</v>
+        <v>0.4390285673858235</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.3059229140281546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2138,7 +1986,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2146,7 +1994,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2154,7 +2002,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2162,7 +2010,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2170,7 +2018,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2178,26 +2026,26 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>-0.1388432444644275</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>-0.3263227211241264</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.7758932364909202</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2205,247 +2053,183 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>-0.1928886709813296</v>
+        <v>-1.25428070858947</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.2789304774885078</v>
+        <v>-1.30808861637318</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.500992009895766</v>
+        <v>-1.476780788792691</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>-0.9000202145168243</v>
+        <v>-1.64969076859607</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>-1.050432231187463</v>
+        <v>-1.753436725969345</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B51">
-        <v>-1.076664348077242</v>
+        <v>-1.769634740520517</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B52">
-        <v>-1.281924895268776</v>
+        <v>-2.223904578589018</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B53">
-        <v>-1.48174170851486</v>
+        <v>-2.371300122301137</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>-1.838890527736786</v>
+        <v>-2.564553471557532</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-1.967417701561998</v>
+        <v>-2.982366932873161</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56">
-        <v>-2.016698992135002</v>
+        <v>-3.227962771843087</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>-2.06075420490487</v>
+        <v>-3.257913830928165</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>-2.086349266896681</v>
+        <v>-3.484898563052732</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B59">
-        <v>-2.243612916956795</v>
+        <v>-4.548787418790663</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B60">
-        <v>-2.654024275841302</v>
+        <v>-4.554079386388931</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>-2.767569307550387</v>
+        <v>-4.886479475886548</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62">
-        <v>-3.051449736853559</v>
+        <v>-4.890552639779302</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>-3.283374817595432</v>
+        <v>-5.030346036767192</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64">
-        <v>-3.716951515175535</v>
+        <v>-5.384564857341061</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>-3.789609591765438</v>
+        <v>-7.765977224349392</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B66">
-        <v>-4.065720103856012</v>
+        <v>-8.581578074013249</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>-4.152826965172852</v>
+        <v>-9.129073311128655</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>-4.802827274419091</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>-4.998569878831013</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70">
-        <v>-5.077582528188925</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71">
-        <v>-7.193812598116568</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72">
-        <v>-7.841460980263179</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73">
-        <v>-8.319678560232946</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>-9.091914253286594</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>-9.344690725245817</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>-19.75808634960484</v>
+        <v>-9.134108106557495</v>
       </c>
     </row>
   </sheetData>

--- a/Presentacion 1/resultados_lasso_pisa.xlsx
+++ b/Presentacion 1/resultados_lasso_pisa.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTEFANO\Documents\GitHub\Big-Data-y-Machine-Learning\Presentacion 1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Resultados_Lengua" sheetId="2" r:id="rId2"/>
     <sheet name="Resultados_Ciencias" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="72">
   <si>
     <t>coeficiente_lasso</t>
   </si>
@@ -237,16 +232,13 @@
   </si>
   <si>
     <t>HISCED</t>
-  </si>
-  <si>
-    <t>variable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,19 +301,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -363,7 +347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,10 +379,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,7 +413,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -606,304 +588,299 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>72</v>
-      </c>
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19.274798100827709</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19.27300115937262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.201750055777991</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15.20184214645286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>14.12037663200306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14.12196668122241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9.4684162529135243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9.468543175341557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8.4544887990380353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8.454544467778506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.1201676644457326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.119397579116255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6.515341533966259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.520602961313998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6.2764666471638026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.282254869847552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.0804524517448408</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.080490007570538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4.4568055218376674</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.456767187042001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4.2257973285497084</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.225898107664308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4.2076339676409544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.207619935728244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.8546242501245409</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.854117614701288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3.772129274782801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.772165199777847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3.7654992374119591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.765498543541956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3.5988440229784588</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.59032766810569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3.553462425568823</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.553461732664109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3.5112389777884818</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.511260242958614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3.1681570460138762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.168081960964357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3.109324960069797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.109315529676893</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2.8443327763577009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.844152883441895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2.5008017659755688</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.500793993298782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2.333624817386236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.325338444743863</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.7842094143559959</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.784113311772793</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.502758511249253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.502799009531945</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.403209921442776</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.403065385101571</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.053054539626161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.052905633225643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1.019744760965579</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.020039733269281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.88149416006591119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8814606557776996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.77288401983931343</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.7729859803521719</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.6608248837823697</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.6608818277323006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.65860233186179695</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.6586326354528894</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.14649222995807701</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.1464847323146762</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.1260472461060731</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.1259623402649287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>6.2859829286389703E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.00624041695217427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -911,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -919,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -927,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -935,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -943,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -951,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -959,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -967,228 +944,228 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-1.308130682547185E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.01300301006779405</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-0.27327568539594799</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.2732681974809025</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.65448012019720581</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.6547721212520892</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.80595935335234647</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.8059923602903585</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-0.86223506057703669</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.8622953411992994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-1.059235110321493</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.059176854147825</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-1.21045449723665</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.210462850106226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-1.2586192302720709</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.258681704712752</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-1.5986402076882109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.604902112304174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-1.86010970615364</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.860067182876643</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-2.0122542115061659</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.012211759053634</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-2.1378161797416921</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.13778788822483</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-2.4775215842830778</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.477439887633599</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-2.8355135995523479</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.835443253729491</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-2.835720806029058</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.835819790804506</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-2.8702339117138078</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.870191345405403</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-3.2234033007046472</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-3.223445800184166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-3.433497961163968</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-3.43343168889955</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-3.7180627682568992</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-3.718063429329578</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-4.1485685906251639</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-4.146874238321814</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-4.5989413200061309</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-4.598838781658162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-5.7172868402432826</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-5.717323628510599</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-6.4780058964262368</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-6.477869217751758</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-6.6106857770757106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-6.610787718450601</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-6.6695625262570317</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-6.66956352889816</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-7.1932485361651883</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-7.193164946205226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-7.414803103718377</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-7.414681790678058</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-18.047862426975421</v>
+        <v>-18.03692256533675</v>
       </c>
     </row>
   </sheetData>
@@ -1197,275 +1174,275 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>22.149223302903721</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22.14611587653218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>16.997312435371349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17.00477366880236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.72165802501838</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12.72168701697784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>7.8832569027239527</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.883256303896811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>7.6429982230629632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.650363004008973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.3410466264825676</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.339864497447207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>7.2359537159024621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.235877397001473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6.1866590429581922</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.194730490771097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.065529989463827</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.065235802750702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11">
-        <v>5.9418993628901386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.941901561389975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>5.8870474874127066</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.887043492047928</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13">
-        <v>4.748711354892464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.74866645072191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14">
-        <v>4.6901307283038509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.690137517307946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15">
-        <v>3.9458318904054228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.945806676378477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B16">
-        <v>3.620536035970813</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.619615046706169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B17">
-        <v>3.5688834809944998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.569356115996659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>3.356280756712831</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.356269199986466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19">
-        <v>3.0675013796155088</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.05704661692078</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>2.368670921353579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.368732744036809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>2.2623459161783379</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.262320800602041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B22">
-        <v>2.0464762285251399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.046497960369978</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2.027187035284046</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.017145189856987</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24">
-        <v>1.9834283422813539</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.983353013588629</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B25">
-        <v>1.938829265725327</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.938793755259232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>1.602671915322843</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.602461134680767</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B27">
-        <v>1.211093619689823</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.210990924905432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.183301481270796</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.183017860160363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B29">
-        <v>1.0082270196356951</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.008375360952138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B30">
-        <v>0.81692363690546543</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8162157874220629</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.77887473951090902</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.7788194911886731</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.45695137520127999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.4570923412481826</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B33">
-        <v>0.19393728286042619</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.1936962672988743</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1473,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -1481,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -1489,15 +1466,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -1505,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -1513,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
@@ -1521,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -1529,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
@@ -1537,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -1545,236 +1522,236 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B44">
-        <v>-2.778116507739619E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.02770162774686688</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B45">
-        <v>-6.0274729610360657E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.06021819119235479</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.37259982250471252</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.3725699283004011</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B47">
-        <v>-0.38462500219563128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.384609243858187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B48">
-        <v>-0.44499396010574582</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.4450874386483374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.59272456692660214</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.5926760872649789</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B50">
-        <v>-0.76167195185761749</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.761646318088019</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.82142375790299271</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.8215670499958624</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B52">
-        <v>-1.1133271933784259</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.121536287004112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B53">
-        <v>-1.6825110806851029</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.682435952137591</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B54">
-        <v>-1.798358197854693</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.798323271028831</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B55">
-        <v>-2.051020714819606</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.05107690370688</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B56">
-        <v>-2.4498603712700069</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.449789402480144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B57">
-        <v>-2.7828975950445058</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.782901483495794</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B58">
-        <v>-3.4070931172794912</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-3.407023109944756</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B59">
-        <v>-3.4888817951967459</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-3.488790221353435</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B60">
-        <v>-3.488886512354552</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-3.48885965581372</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B61">
-        <v>-3.5179884069173921</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-3.517865340664071</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-3.5713306306005741</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-3.571406413742875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B63">
-        <v>-4.2438086433810174</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-4.243758168684626</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B64">
-        <v>-5.0729925400433293</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-5.073036840633963</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B65">
-        <v>-5.3598650550180746</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-5.359865701401848</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B66">
-        <v>-5.8600091224860638</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-5.857349285368143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B67">
-        <v>-6.6597879972083671</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-6.659639855447772</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-7.396544651362766</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-7.396628682951014</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B69">
-        <v>-9.5873481815502259</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-9.587177586564996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B70">
-        <v>-10.14171749785972</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-10.14145757072098</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-10.4848173768967</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-10.48460318697131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-20.602727800545011</v>
+        <v>-20.59516361547698</v>
       </c>
     </row>
   </sheetData>
@@ -1783,291 +1760,291 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>24.136372318905369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24.13438072193336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>15.97594415939607</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15.97700178801712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.48144058893951</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13.48156129934635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10.297498408995811</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.29764449270888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8.423332519986868</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8.423397726142305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>7.7336633171474922</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.739730182560333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.3807801547859242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.379936683996801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>6.4443983301411532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.444525358514091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>6.4224465259165378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.422496965963028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6.2446278128650352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.244586569765062</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>6.0916640484360194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.098344928534247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13">
-        <v>5.7667640600773584</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.76675275058329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>4.4886968871590529</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.488731738143724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>4.069648901767188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.059608543332216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16">
-        <v>3.9666602521753371</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.966991877432834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17">
-        <v>3.8809964815304099</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.880492036102271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B18">
-        <v>3.724980478652586</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.72510575756676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.6168461067680968</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.616848702747374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2.9820275881114231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.981922885121199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B21">
-        <v>2.92548969967552</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.925465392028959</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>2.2291196340543209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.229109210543666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1.703409592242964</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.70324891638965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.4311402194175431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.42136915246314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1.3391255081664111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.339171745407985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B26">
-        <v>1.3184038324360869</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.318361522451792</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <v>1.3088213701705831</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.308865166256917</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B28">
-        <v>1.1231050812446319</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.123173922877012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B29">
-        <v>1.0990302841294819</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.098872283070385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1.0052228906182681</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.005338991188785</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.85510062172849721</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8551021408576597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B32">
-        <v>0.74213948720882927</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.7420271591231289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B33">
-        <v>0.55583064107330371</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.5556242673249541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B34">
-        <v>0.47105717090433308</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.4709967499636413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.32003270073727008</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.319924783039727</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -2075,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -2083,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -2091,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -2099,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
@@ -2107,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -2115,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -2123,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
@@ -2131,236 +2108,236 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B44">
-        <v>-0.20478535504267761</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.2046905858909737</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B45">
-        <v>-0.2456416861703197</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.2456307545309041</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B46">
-        <v>-0.32340126928459628</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.3234684289732947</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B47">
-        <v>-1.047022786247882</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.046980235255969</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-1.0531278440773759</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.053374599747197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B49">
-        <v>-1.078784302974455</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.07879730835751</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50">
-        <v>-1.2707135119289921</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.270825977418836</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-1.4814628542071151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.4813942159359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B52">
-        <v>-1.884533823828898</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.884464846880491</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B53">
-        <v>-1.946165518503411</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.946113005888862</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-2.1029276157328751</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.110226478606489</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B55">
-        <v>-2.2221639871413319</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.222247360958373</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-2.322369173182409</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.322343001804172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B57">
-        <v>-2.6469675753816491</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.647015835134739</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B58">
-        <v>-2.8179852073201852</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.818031828077827</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B59">
-        <v>-3.2785595647662769</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-3.278471286918101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B60">
-        <v>-3.7308207130451558</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-3.730740037565342</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-3.812905267451955</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-3.812859251807042</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B62">
-        <v>-4.1524857695105144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-4.15240991397361</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-4.2059490181761392</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-4.205952828693829</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B64">
-        <v>-4.8292410777630614</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-4.829290475090414</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-4.9375492061256976</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-4.937433204673401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B66">
-        <v>-5.1202390055636977</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-5.120242041680915</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B67">
-        <v>-7.3102741758565521</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-7.310400740477454</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B68">
-        <v>-7.7667589328398483</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-7.764831687965859</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B69">
-        <v>-8.3574803816239935</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-8.357333120927297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-9.1459208075209002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-9.145835784946009</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-9.4852994699161393</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-9.485161158564914</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-19.49926727065899</v>
+        <v>-19.48552303666632</v>
       </c>
     </row>
   </sheetData>

--- a/Presentacion 1/resultados_lasso_pisa.xlsx
+++ b/Presentacion 1/resultados_lasso_pisa.xlsx
@@ -605,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19.27300115937262</v>
+        <v>19.2730011593726</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -621,7 +621,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>14.12196668122241</v>
+        <v>14.12196668122245</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -629,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9.468543175341557</v>
+        <v>9.468543175341534</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -637,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8.454544467778506</v>
+        <v>8.454544467778508</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.119397579116255</v>
+        <v>7.119397579116266</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -653,7 +653,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6.520602961313998</v>
+        <v>6.520602961313984</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -661,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6.282254869847552</v>
+        <v>6.282254869847556</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -669,7 +669,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.080490007570538</v>
+        <v>5.080490007570543</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -677,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4.456767187042001</v>
+        <v>4.456767187042007</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -685,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4.225898107664308</v>
+        <v>4.225898107664288</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -693,7 +693,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4.207619935728244</v>
+        <v>4.207619935728252</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -701,7 +701,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.854117614701288</v>
+        <v>3.854117614701293</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -709,7 +709,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3.772165199777847</v>
+        <v>3.77216519977784</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -717,7 +717,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3.765498543541956</v>
+        <v>3.765498543541939</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -725,7 +725,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3.59032766810569</v>
+        <v>3.590327668105691</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -733,7 +733,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3.553461732664109</v>
+        <v>3.553461732664107</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -741,7 +741,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3.511260242958614</v>
+        <v>3.51126024295862</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -765,7 +765,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2.844152883441895</v>
+        <v>2.84415288344188</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -773,7 +773,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2.500793993298782</v>
+        <v>2.500793993298787</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -781,7 +781,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2.325338444743863</v>
+        <v>2.325338444743866</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -789,7 +789,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.784113311772793</v>
+        <v>1.784113311772792</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -805,7 +805,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.403065385101571</v>
+        <v>1.403065385101566</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -813,7 +813,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.052905633225643</v>
+        <v>1.052905633225666</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -829,7 +829,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.8814606557776996</v>
+        <v>0.8814606557777096</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -837,7 +837,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.7729859803521719</v>
+        <v>0.772985980352171</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -845,7 +845,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.6608818277323006</v>
+        <v>0.6608818277323</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -853,7 +853,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.6586326354528894</v>
+        <v>0.6586326354528873</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -861,7 +861,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.1464847323146762</v>
+        <v>0.1464847323146732</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -869,7 +869,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.1259623402649287</v>
+        <v>0.1259623402649372</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -877,7 +877,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.00624041695217427</v>
+        <v>0.006240416952175985</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -949,7 +949,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-0.01300301006779405</v>
+        <v>-0.01300301006778942</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -957,7 +957,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-0.2732681974809025</v>
+        <v>-0.2732681974809006</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -965,7 +965,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.6547721212520892</v>
+        <v>-0.6547721212520827</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -973,7 +973,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.8059923602903585</v>
+        <v>-0.805992360290356</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -981,7 +981,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-0.8622953411992994</v>
+        <v>-0.8622953411993044</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -989,7 +989,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-1.059176854147825</v>
+        <v>-1.059176854147827</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -997,7 +997,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-1.210462850106226</v>
+        <v>-1.210462850106231</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1005,7 +1005,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-1.258681704712752</v>
+        <v>-1.258681704712745</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1013,7 +1013,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-1.604902112304174</v>
+        <v>-1.604902112304163</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1021,7 +1021,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-1.860067182876643</v>
+        <v>-1.860067182876638</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1029,7 +1029,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-2.012211759053634</v>
+        <v>-2.012211759053627</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1037,7 +1037,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-2.13778788822483</v>
+        <v>-2.137787888224832</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1045,7 +1045,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-2.477439887633599</v>
+        <v>-2.4774398876336</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1053,7 +1053,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-2.835443253729491</v>
+        <v>-2.835443253729481</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1061,7 +1061,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-2.835819790804506</v>
+        <v>-2.835819790804512</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1069,7 +1069,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-2.870191345405403</v>
+        <v>-2.870191345405411</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1077,7 +1077,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-3.223445800184166</v>
+        <v>-3.223445800184164</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1085,7 +1085,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-3.43343168889955</v>
+        <v>-3.433431688899549</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1093,7 +1093,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-3.718063429329578</v>
+        <v>-3.718063429329584</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1101,7 +1101,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-4.146874238321814</v>
+        <v>-4.146874238321804</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1109,7 +1109,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-4.598838781658162</v>
+        <v>-4.59883878165817</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1117,7 +1117,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-5.717323628510599</v>
+        <v>-5.717323628510594</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1125,7 +1125,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-6.477869217751758</v>
+        <v>-6.477869217751755</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1133,7 +1133,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-6.610787718450601</v>
+        <v>-6.610787718450588</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1141,7 +1141,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-6.66956352889816</v>
+        <v>-6.669563528898163</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1149,7 +1149,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-7.193164946205226</v>
+        <v>-7.193164946205233</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1157,7 +1157,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-7.414681790678058</v>
+        <v>-7.414681790678074</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1165,7 +1165,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-18.03692256533675</v>
+        <v>-18.03692256533677</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>22.14611587653218</v>
+        <v>22.14611587653215</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1199,7 +1199,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>17.00477366880236</v>
+        <v>17.00477366880227</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>7.883256303896811</v>
+        <v>7.883256303896813</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>7.650363004008973</v>
+        <v>7.650363004008968</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.339864497447207</v>
+        <v>7.339864497447213</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>7.235877397001473</v>
+        <v>7.23587739700147</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6.194730490771097</v>
+        <v>6.194730490771098</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.065235802750702</v>
+        <v>6.065235802750709</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>5.941901561389975</v>
+        <v>5.941901561389978</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>5.887043492047928</v>
+        <v>5.887043492047931</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1279,7 +1279,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>4.74866645072191</v>
+        <v>4.748666450721915</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>4.690137517307946</v>
+        <v>4.690137517307944</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>3.945806676378477</v>
+        <v>3.945806676378482</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>3.619615046706169</v>
+        <v>3.619615046706176</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>3.569356115996659</v>
+        <v>3.569356115996658</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>3.356269199986466</v>
+        <v>3.356269199986464</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>3.05704661692078</v>
+        <v>3.057046616920781</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>2.368732744036809</v>
+        <v>2.368732744036813</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>2.262320800602041</v>
+        <v>2.262320800602038</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>2.046497960369978</v>
+        <v>2.046497960369974</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2.017145189856987</v>
+        <v>2.017145189856981</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>1.602461134680767</v>
+        <v>1.602461134680774</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>1.210990924905432</v>
+        <v>1.210990924905438</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.183017860160363</v>
+        <v>1.183017860160365</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>1.008375360952138</v>
+        <v>1.008375360952133</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>46</v>
       </c>
       <c r="B30">
-        <v>0.8162157874220629</v>
+        <v>0.8162157874220723</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.7788194911886731</v>
+        <v>0.7788194911886696</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.4570923412481826</v>
+        <v>0.4570923412481767</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>21</v>
       </c>
       <c r="B33">
-        <v>0.1936962672988743</v>
+        <v>0.1936962672988684</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>-0.02770162774686688</v>
+        <v>-0.02770162774686444</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>31</v>
       </c>
       <c r="B45">
-        <v>-0.06021819119235479</v>
+        <v>-0.06021819119235075</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.3725699283004011</v>
+        <v>-0.3725699283003943</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>35</v>
       </c>
       <c r="B47">
-        <v>-0.384609243858187</v>
+        <v>-0.3846092438581764</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>-0.4450874386483374</v>
+        <v>-0.4450874386483306</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.5926760872649789</v>
+        <v>-0.5926760872649782</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>45</v>
       </c>
       <c r="B50">
-        <v>-0.761646318088019</v>
+        <v>-0.7616463180880216</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.8215670499958624</v>
+        <v>-0.8215670499958631</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>-1.121536287004112</v>
+        <v>-1.121536287004109</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>49</v>
       </c>
       <c r="B53">
-        <v>-1.682435952137591</v>
+        <v>-1.682435952137582</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>-1.798323271028831</v>
+        <v>-1.798323271028829</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>51</v>
       </c>
       <c r="B55">
-        <v>-2.05107690370688</v>
+        <v>-2.051076903706881</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>55</v>
       </c>
       <c r="B58">
-        <v>-3.407023109944756</v>
+        <v>-3.407023109944751</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>47</v>
       </c>
       <c r="B60">
-        <v>-3.48885965581372</v>
+        <v>-3.488859655813714</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>56</v>
       </c>
       <c r="B61">
-        <v>-3.517865340664071</v>
+        <v>-3.51786534066407</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-3.571406413742875</v>
+        <v>-3.571406413742873</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>59</v>
       </c>
       <c r="B63">
-        <v>-4.243758168684626</v>
+        <v>-4.24375816868463</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>-5.073036840633963</v>
+        <v>-5.073036840633964</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>62</v>
       </c>
       <c r="B65">
-        <v>-5.359865701401848</v>
+        <v>-5.359865701401846</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>63</v>
       </c>
       <c r="B66">
-        <v>-5.857349285368143</v>
+        <v>-5.85734928536813</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>57</v>
       </c>
       <c r="B67">
-        <v>-6.659639855447772</v>
+        <v>-6.659639855447775</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-7.396628682951014</v>
+        <v>-7.396628682951005</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>-9.587177586564996</v>
+        <v>-9.587177586565005</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-20.59516361547698</v>
+        <v>-20.59516361547687</v>
       </c>
     </row>
   </sheetData>
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>24.13438072193336</v>
+        <v>24.1343807219334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1785,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>15.97700178801712</v>
+        <v>15.97700178801708</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1801,7 +1801,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10.29764449270888</v>
+        <v>10.29764449270887</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1809,7 +1809,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8.423397726142305</v>
+        <v>8.4233977261423</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1817,7 +1817,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>7.739730182560333</v>
+        <v>7.739730182560324</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1825,7 +1825,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.379936683996801</v>
+        <v>7.379936683996797</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1833,7 +1833,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>6.444525358514091</v>
+        <v>6.444525358514082</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1841,7 +1841,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>6.422496965963028</v>
+        <v>6.422496965963019</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1849,7 +1849,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6.244586569765062</v>
+        <v>6.244586569765061</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1857,7 +1857,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>6.098344928534247</v>
+        <v>6.098344928534233</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1865,7 +1865,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>5.76675275058329</v>
+        <v>5.766752750583289</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1873,7 +1873,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>4.488731738143724</v>
+        <v>4.488731738143709</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1881,7 +1881,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>4.059608543332216</v>
+        <v>4.059608543332197</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1889,7 +1889,7 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>3.966991877432834</v>
+        <v>3.966991877432816</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1897,7 +1897,7 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>3.880492036102271</v>
+        <v>3.880492036102277</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1905,7 +1905,7 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>3.72510575756676</v>
+        <v>3.725105757566777</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1913,7 +1913,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.616848702747374</v>
+        <v>3.616848702747365</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1921,7 +1921,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2.981922885121199</v>
+        <v>2.981922885121189</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <v>2.925465392028959</v>
+        <v>2.925465392028956</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1937,7 +1937,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>2.229109210543666</v>
+        <v>2.229109210543673</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1945,7 +1945,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1.70324891638965</v>
+        <v>1.703248916389632</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1953,7 +1953,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.42136915246314</v>
+        <v>1.421369152463114</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1961,7 +1961,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1.339171745407985</v>
+        <v>1.339171745407973</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1969,7 +1969,7 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>1.318361522451792</v>
+        <v>1.318361522451794</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1977,7 +1977,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>1.308865166256917</v>
+        <v>1.308865166256912</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1985,7 +1985,7 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>1.123173922877012</v>
+        <v>1.123173922877016</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1993,7 +1993,7 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>1.098872283070385</v>
+        <v>1.098872283070378</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2001,7 +2001,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1.005338991188785</v>
+        <v>1.005338991188779</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2009,7 +2009,7 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.8551021408576597</v>
+        <v>0.8551021408576627</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2017,7 +2017,7 @@
         <v>24</v>
       </c>
       <c r="B32">
-        <v>0.7420271591231289</v>
+        <v>0.7420271591231316</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2025,7 +2025,7 @@
         <v>21</v>
       </c>
       <c r="B33">
-        <v>0.5556242673249541</v>
+        <v>0.5556242673249485</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2033,7 +2033,7 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>0.4709967499636413</v>
+        <v>0.4709967499636382</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2041,7 +2041,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.319924783039727</v>
+        <v>0.3199247830397334</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2113,7 +2113,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>-0.2046905858909737</v>
+        <v>-0.2046905858909669</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2121,7 +2121,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>-0.2456307545309041</v>
+        <v>-0.2456307545309057</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2129,7 +2129,7 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>-0.3234684289732947</v>
+        <v>-0.3234684289732953</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2137,7 +2137,7 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>-1.046980235255969</v>
+        <v>-1.046980235255965</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2145,7 +2145,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-1.053374599747197</v>
+        <v>-1.053374599747183</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2153,7 +2153,7 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>-1.07879730835751</v>
+        <v>-1.078797308357502</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2161,7 +2161,7 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>-1.270825977418836</v>
+        <v>-1.270825977418828</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2169,7 +2169,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-1.4813942159359</v>
+        <v>-1.481394215935895</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2177,7 +2177,7 @@
         <v>15</v>
       </c>
       <c r="B52">
-        <v>-1.884464846880491</v>
+        <v>-1.884464846880498</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2185,7 +2185,7 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>-1.946113005888862</v>
+        <v>-1.946113005888876</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2193,7 +2193,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-2.110226478606489</v>
+        <v>-2.11022647860646</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2201,7 +2201,7 @@
         <v>51</v>
       </c>
       <c r="B55">
-        <v>-2.222247360958373</v>
+        <v>-2.222247360958372</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2209,7 +2209,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-2.322343001804172</v>
+        <v>-2.322343001804188</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2217,7 +2217,7 @@
         <v>47</v>
       </c>
       <c r="B57">
-        <v>-2.647015835134739</v>
+        <v>-2.647015835134738</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2225,7 +2225,7 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>-2.818031828077827</v>
+        <v>-2.818031828077822</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2233,7 +2233,7 @@
         <v>56</v>
       </c>
       <c r="B59">
-        <v>-3.278471286918101</v>
+        <v>-3.278471286918111</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2241,7 +2241,7 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>-3.730740037565342</v>
+        <v>-3.73074003756534</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2257,7 +2257,7 @@
         <v>57</v>
       </c>
       <c r="B62">
-        <v>-4.15240991397361</v>
+        <v>-4.152409913973595</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2265,7 +2265,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-4.205952828693829</v>
+        <v>-4.205952828693828</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2273,7 +2273,7 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>-4.829290475090414</v>
+        <v>-4.829290475090407</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2281,7 +2281,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-4.937433204673401</v>
+        <v>-4.937433204673398</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2289,7 +2289,7 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>-5.120242041680915</v>
+        <v>-5.120242041680916</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2297,7 +2297,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>-7.310400740477454</v>
+        <v>-7.310400740477439</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2305,7 +2305,7 @@
         <v>63</v>
       </c>
       <c r="B68">
-        <v>-7.764831687965859</v>
+        <v>-7.764831687965879</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2313,7 +2313,7 @@
         <v>66</v>
       </c>
       <c r="B69">
-        <v>-8.357333120927297</v>
+        <v>-8.35733312092729</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2321,7 +2321,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-9.145835784946009</v>
+        <v>-9.145835784946005</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2329,7 +2329,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-9.485161158564914</v>
+        <v>-9.485161158564923</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2337,7 +2337,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-19.48552303666632</v>
+        <v>-19.48552303666628</v>
       </c>
     </row>
   </sheetData>
